--- a/biology/Zoologie/Gobemouche_des_Nilgiri/Gobemouche_des_Nilgiri.xlsx
+++ b/biology/Zoologie/Gobemouche_des_Nilgiri/Gobemouche_des_Nilgiri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eumyias albicaudatus · Niltava des Nilgiri
-Le Gobemouche de Nilgiri[1] (Eumyias albicaudatus), également appelé Niltava des Nilgiri[2], est une espèce d'oiseaux de la famille des Muscicapidae et dont l'aire de répartition est très restreinte dans les collines du Sud de l'Inde. On le trouve principalement dans les forêts de shola de haute altitude des Ghâts occidentaux et des Nilgiris.
+Le Gobemouche de Nilgiri (Eumyias albicaudatus), également appelé Niltava des Nilgiri, est une espèce d'oiseaux de la famille des Muscicapidae et dont l'aire de répartition est très restreinte dans les collines du Sud de l'Inde. On le trouve principalement dans les forêts de shola de haute altitude des Ghâts occidentaux et des Nilgiris.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Identification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau mesure environ 13 cm. Il est bleu indigo foncé avec un peu de bleu violet sur le front et des lores plus foncés. Il est beaucoup plus sombre que le gobemouche vert-de-gris et ne présente pas un contraste aussi fort entre la face pâle et les lores noires. La femelle est plus terne avec du brun foncé sur les parties supérieures et du gris foncé en dessous[3]. Les deux plumes centrales de la queue sont bleues et les plumes latérales sont brun foncé et bordées d'indigo. La base des plumes extérieures de la queue est blanche mais cela n'est pas facilement visible lorsque l'oiseau est assis. Les plumes des ailes sont marron foncé avec une étroite frange extérieure bleue. Le juvénile est brun foncé avec des taches crémeuses et un aspect écailleux sur la gorge et la poitrine. Le bec et les pattes sont noirs et l'iris est brun foncé[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau mesure environ 13 cm. Il est bleu indigo foncé avec un peu de bleu violet sur le front et des lores plus foncés. Il est beaucoup plus sombre que le gobemouche vert-de-gris et ne présente pas un contraste aussi fort entre la face pâle et les lores noires. La femelle est plus terne avec du brun foncé sur les parties supérieures et du gris foncé en dessous. Les deux plumes centrales de la queue sont bleues et les plumes latérales sont brun foncé et bordées d'indigo. La base des plumes extérieures de la queue est blanche mais cela n'est pas facilement visible lorsque l'oiseau est assis. Les plumes des ailes sont marron foncé avec une étroite frange extérieure bleue. Le juvénile est brun foncé avec des taches crémeuses et un aspect écailleux sur la gorge et la poitrine. Le bec et les pattes sont noirs et l'iris est brun foncé,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se trouve dans les hautes collines (principalement au-dessus de 1 200 m) des Nilgiris, des Palnis, des chaînes d'Anamalai, des Brahmagiris, des Bababudan et des Biligirrangan, en Inde[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se trouve dans les hautes collines (principalement au-dessus de 1 200 m) des Nilgiris, des Palnis, des chaînes d'Anamalai, des Brahmagiris, des Bababudan et des Biligirrangan, en Inde,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Comportement et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme la plupart des gobemouches, il fait des sauts pour capturer des insectes et retourne à son perchoir. Il se nourrit principalement dans les niveaux inférieurs[8] mais on peut parfois le trouver au sommet de la canopée. Le chant est une série de riches notes de gazouillis (ayant une ressemblance avec le cri du Tarier pie[9]) tandis que le cri habituel est un doux pépiement nasal. Il se perche verticalement et produit le pépiement en faisant des mouvements de la queue de haut en bas.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la plupart des gobemouches, il fait des sauts pour capturer des insectes et retourne à son perchoir. Il se nourrit principalement dans les niveaux inférieurs mais on peut parfois le trouver au sommet de la canopée. Le chant est une série de riches notes de gazouillis (ayant une ressemblance avec le cri du Tarier pie) tandis que le cri habituel est un doux pépiement nasal. Il se perche verticalement et produit le pépiement en faisant des mouvements de la queue de haut en bas.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La saison de reproduction s'étend de mars à juin, mais le pic de ponte se situe en avril. Le nid est construit dans une cavité dans un talus de terre ou un trou d'arbre. Il utilise également les avant-toits des maisons et les boiseries des ponts. Le nid est une coupe avec des mousses et des lichens à l'extérieur avec quelques plumes et n'est pas très bien tapissé à l'intérieur[10].
-La ponte habituelle est de deux à trois œufs. Les œufs sont brun crème avec une marbrure dense près de la partie la plus large de l'œuf[11],[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La saison de reproduction s'étend de mars à juin, mais le pic de ponte se situe en avril. Le nid est construit dans une cavité dans un talus de terre ou un trou d'arbre. Il utilise également les avant-toits des maisons et les boiseries des ponts. Le nid est une coupe avec des mousses et des lichens à l'extérieur avec quelques plumes et n'est pas très bien tapissé à l'intérieur.
+La ponte habituelle est de deux à trois œufs. Les œufs sont brun crème avec une marbrure dense près de la partie la plus large de l'œuf,.
 </t>
         </is>
       </c>
@@ -637,12 +657,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Eumyias albicaudatus (Jerdon, 1840)[1].
-L'espèce a été initialement classée dans le genre Muscicapa sous le protonyme Muscicapa albi-caudata Jerdon, 1840[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Gobemouche des Nilgiri[1], Niltava des Nilgiri[2].
-Eumyias albicaudatus a pour synonymes[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Eumyias albicaudatus (Jerdon, 1840).
+L'espèce a été initialement classée dans le genre Muscicapa sous le protonyme Muscicapa albi-caudata Jerdon, 1840.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Gobemouche des Nilgiri, Niltava des Nilgiri.
+Eumyias albicaudatus a pour synonymes :
 Muscicapa albi-caudata Jerdon, 1840
 Eumyias albicaudata (Jerdon, 1840)
 Muscicapa albicaudata albicaudata</t>
